--- a/Input_Excel/25_03_007.xlsx
+++ b/Input_Excel/25_03_007.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_25_03/COMBINED_AUTOMATION/Input_Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Input_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2848889F-8C4B-45E8-A373-5D2A00281AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{889861B6-9879-44FB-BFEA-BF58D396473B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{2848889F-8C4B-45E8-A373-5D2A00281AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6C440B-6584-478B-9847-B8561F9821C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -2096,15 +2096,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2123,8 +2114,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4542,17 +4542,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
@@ -4561,17 +4561,17 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
@@ -4654,8 +4654,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4793,7 +4793,7 @@
       <c r="A4" s="61">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>394</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -4814,25 +4814,25 @@
       <c r="H4" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="68">
         <v>0</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="68">
         <v>96</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -4843,23 +4843,23 @@
         <v>454</v>
       </c>
       <c r="H5" s="61"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68">
+      <c r="A6" s="65">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="68" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="69" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="61" t="s">
@@ -4874,25 +4874,25 @@
       <c r="H6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="71" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="62">
-        <v>0</v>
-      </c>
-      <c r="L6" s="62">
+      <c r="K6" s="70">
+        <v>457</v>
+      </c>
+      <c r="L6" s="70">
         <v>256</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="62" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -4903,15 +4903,15 @@
         <v>81</v>
       </c>
       <c r="H7" s="61"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="66"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -4922,15 +4922,15 @@
         <v>457</v>
       </c>
       <c r="H8" s="61"/>
-      <c r="I8" s="64"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -4941,15 +4941,15 @@
         <v>458</v>
       </c>
       <c r="H9" s="61"/>
-      <c r="I9" s="64"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -4960,15 +4960,15 @@
         <v>82</v>
       </c>
       <c r="H10" s="61"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="66"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -4979,15 +4979,15 @@
         <v>83</v>
       </c>
       <c r="H11" s="61"/>
-      <c r="I11" s="64"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="66"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -4998,15 +4998,15 @@
         <v>459</v>
       </c>
       <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="66"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
@@ -5017,14 +5017,20 @@
         <v>84</v>
       </c>
       <c r="H13" s="61"/>
-      <c r="I13" s="64"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="67"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="I6:I13"/>
     <mergeCell ref="M6:M13"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="M4:M5"/>
@@ -5041,12 +5047,6 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="I6:I13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1047">
@@ -5158,7 +5158,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -5197,13 +5197,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="68">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>387</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5220,9 +5220,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="26" t="s">
         <v>389</v>
       </c>
@@ -5237,9 +5237,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="26" t="s">
         <v>390</v>
       </c>
@@ -5254,9 +5254,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="26" t="s">
         <v>391</v>
       </c>
@@ -5317,13 +5317,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="68">
+      <c r="A8" s="65">
         <v>4</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="65" t="s">
         <v>408</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5340,9 +5340,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="26" t="s">
         <v>411</v>
       </c>
@@ -5366,18 +5366,18 @@
     <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C1047">
+    <cfRule type="duplicateValues" dxfId="7" priority="35"/>
+    <cfRule type="expression" dxfId="6" priority="36">
+      <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1047">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(D2&lt;&gt;"", NOT(ISNUMBER(D2 + 0)), COUNTIF(D:D, D2) &gt; 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>IF(B2="ARRAY", NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "0123456789")))=LEN(D2)),    NOT(AND(       OR(AND(CODE(LEFT(D2,1))&gt;=65, CODE(LEFT(D2,1))&lt;=90), AND(CODE(LEFT(D2,1))&gt;=97, CODE(LEFT(D2,1))&lt;=122)),       SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(D2)    )) )</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1047">
-    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
-    <cfRule type="expression" dxfId="0" priority="36">
-      <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5451,13 +5451,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="70" t="s">
         <v>387</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5468,9 +5468,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="26" t="s">
         <v>389</v>
       </c>
@@ -5479,9 +5479,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="26" t="s">
         <v>390</v>
       </c>
@@ -5490,9 +5490,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="26" t="s">
         <v>391</v>
       </c>
@@ -5557,16 +5557,16 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(D2&lt;&gt;"", NOT(ISNUMBER(D2 + 0)), COUNTIF(D:D, D2) &gt; 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>IF(OR(B2="ARRAY_FIXED", B2="ARRAY_VARIABLE"),    NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "0123456789")))=LEN(D2)),    IF(B2="PRIMITIVE", D2&lt;&gt;"",       NOT(AND(          OR(AND(CODE(LEFT(D2,1))&gt;=65, CODE(LEFT(D2,1))&lt;=90), AND(CODE(LEFT(D2,1))&gt;=97, CODE(LEFT(D2,1))&lt;=122)),          SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(D2)       ))    ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50462,6 +50462,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">efcd28e2-1fe6-4c4a-a9e3-ab6681936aa2</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
@@ -50478,14 +50485,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">efcd28e2-1fe6-4c4a-a9e3-ab6681936aa2</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -50683,16 +50692,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -50702,16 +50711,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50727,12 +50735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>